--- a/Industrials/RYCEY.xlsx
+++ b/Industrials/RYCEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D4CCCC-2E3E-774C-B95A-293FCD59193D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6389128-1389-4C4F-A797-C4B99FFFC2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,11 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>7.55</v>
+    <v>7.62</v>
     <v>2.72</v>
-    <v>1.4000999999999999</v>
-    <v>0.18</v>
-    <v>2.4895999999999998E-2</v>
+    <v>1.4009</v>
+    <v>-0.16</v>
+    <v>-2.1389999999999999E-2</v>
+    <v>0.02</v>
+    <v>2.7320000000000001E-3</v>
     <v>USD</v>
     <v>Rolls-Royce Holdings plc is a United Kingdom-based company that develops and delivers power and propulsion solutions for safety-critical applications in the air, at sea and on land. The Company's segments include Civil Aerospace, Defense, Power Systems, and New Markets. The Civil Aerospace segment is engaged in the development, manufacture, marketing and sales of commercial aero engines and aftermarket services. The Defense segment is engaged in the development, manufacture, marketing and sales of military aero engines, naval engines, submarine nuclear power plants and aftermarket services. The Power Systems segment is engaged in the development, manufacture, marketing, and sales of integrated solutions for onsite power and propulsion. The New Markets segment is engaged in the development, manufacture, and sales of small modular reactors (SMR) and new electrical power solutions. The Company's subsidiaries include Aerospace Transmission Technologies GmbH, PT Rolls-Royce, and others.</v>
     <v>41400</v>
@@ -1952,24 +1954,25 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>Kings Place, 90 York Way, LONDON, N1 9FX GB</v>
-    <v>7.45</v>
+    <v>7.4749999999999996</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>45602.048611111109</v>
+    <v>45604.048611111109</v>
     <v>0</v>
     <v>7.3</v>
-    <v>60420250000</v>
+    <v>63663890000</v>
     <v>ROLLS-ROYCE HOLDINGS PLC</v>
     <v>ROLLS-ROYCE HOLDINGS PLC</v>
-    <v>7.3</v>
-    <v>21.194800000000001</v>
-    <v>7.23</v>
-    <v>7.41</v>
+    <v>7.32</v>
+    <v>20.9373</v>
+    <v>7.48</v>
+    <v>7.32</v>
+    <v>7.34</v>
     <v>8504897000</v>
     <v>RYCEY</v>
     <v>ROLLS-ROYCE HOLDINGS PLC (OTCM:RYCEY)</v>
-    <v>1926472</v>
-    <v>13904940</v>
+    <v>4424617</v>
+    <v>11972630</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2001,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2021,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2037,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2048,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2120,12 +2129,18 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2170,12 +2185,18 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2843,7 +2864,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2876,14 +2897,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>7.41</v>
+        <v>7.32</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>2.7168600206843831</v>
+        <v>2.8627137011556276</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2923,14 +2944,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.4895999999999998E-2</v>
+        <v>-2.1389999999999999E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>29.793022682445759</v>
+        <v>31.392450690335306</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2971,14 +2992,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>60420250000</v>
+        <v>63663890000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>4.0847232508968434E-2</v>
+        <v>3.876608859433503E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3020,7 +3041,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.4000999999999999</v>
+        <v>1.4009</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3053,7 +3074,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.29612273987766458</v>
+        <v>-0.28746851126960304</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3232,7 +3253,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
@@ -3262,7 +3283,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29">
@@ -3291,7 +3312,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>1</v>
       </c>
@@ -3600,7 +3621,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
@@ -3631,7 +3652,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22" s="29"/>
       <c r="C22" s="32">
